--- a/TDE_03.xlsx
+++ b/TDE_03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dados\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8013B79-2EC8-4FE5-ABDE-E9A1FC889115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D173BF-B344-4C63-9C46-08EC9B98BB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="456" activeTab="2" xr2:uid="{FCAA2575-5A22-416A-9B32-8BCE05ED8A9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="456" activeTab="4" xr2:uid="{FCAA2575-5A22-416A-9B32-8BCE05ED8A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="InsertSort" sheetId="7" r:id="rId1"/>
@@ -33,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -88,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +109,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +418,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2666,16 +2678,16 @@
                   <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6679999999999999</c:v>
+                  <c:v>0.45200000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3359999999999999</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.986000000000001</c:v>
+                  <c:v>1.0420000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.751999999999995</c:v>
+                  <c:v>2.8359999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3152,19 +3164,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>681</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64299</c:v>
+                  <c:v>3369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246513</c:v>
+                  <c:v>7654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6302417</c:v>
+                  <c:v>34745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24814731</c:v>
+                  <c:v>89716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,19 +3654,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>730</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64798</c:v>
+                  <c:v>5357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>247512</c:v>
+                  <c:v>13205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6307416</c:v>
+                  <c:v>75466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24824730</c:v>
+                  <c:v>163142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10007,16 +10019,16 @@
                   <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64299</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246513</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6302417</c:v>
+                  <c:v>4947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24814731</c:v>
+                  <c:v>9809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22454,15 +22466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
+      <xdr:colOff>578223</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>161366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1295399</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22490,15 +22502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>87406</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>930088</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22528,13 +22540,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1266264</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>146796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22567,15 +22579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1251856</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22603,15 +22615,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1240970</xdr:colOff>
+      <xdr:colOff>1240971</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22638,16 +22650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22681,14 +22693,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>542365</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1259541</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22715,16 +22727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>425263</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1196788</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>497541</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>26894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22751,16 +22763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>793938</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>479613</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>587190</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16809</xdr:rowOff>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22793,15 +22805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22828,16 +22840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22867,16 +22879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22913,14 +22925,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>384810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1156335</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22951,15 +22963,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1129664</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1129665</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22990,15 +23002,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23033,16 +23045,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>512717</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>164918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371748</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1228997</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23069,16 +23081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>430802</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1221377</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>166007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42181</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23105,16 +23117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505097</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157298</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23147,15 +23159,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>596152</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>103094</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>103093</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23182,16 +23194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161365</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161366</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>990601</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23220,14 +23232,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>91888</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>271182</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23555,23 +23567,16 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T9"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -24665,23 +24670,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CC3CBF-5600-4278-BBE0-845E39E1A78C}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -24804,7 +24803,7 @@
         <v>2.16</v>
       </c>
       <c r="G4" s="3">
-        <v>64299</v>
+        <v>479</v>
       </c>
       <c r="H4" s="3">
         <v>124540</v>
@@ -24814,7 +24813,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="K4" s="3">
-        <v>246513</v>
+        <v>970</v>
       </c>
       <c r="L4" s="3">
         <v>499065</v>
@@ -24824,7 +24823,7 @@
         <v>24.64</v>
       </c>
       <c r="O4" s="3">
-        <v>6302417</v>
+        <v>4947</v>
       </c>
       <c r="P4" s="3">
         <v>12496122</v>
@@ -24834,7 +24833,7 @@
         <v>114.1657</v>
       </c>
       <c r="S4" s="3">
-        <v>24814731</v>
+        <v>9809</v>
       </c>
       <c r="T4" s="3">
         <v>49976855</v>
@@ -24855,17 +24854,15 @@
         <v>2.21</v>
       </c>
       <c r="G5" s="3">
-        <v>64299</v>
-      </c>
-      <c r="H5" s="3">
-        <v>124540</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="3">
         <v>5.85</v>
       </c>
       <c r="K5" s="3">
-        <v>246513</v>
+        <v>970</v>
       </c>
       <c r="L5" s="3">
         <v>499065</v>
@@ -24875,7 +24872,7 @@
         <v>24.82</v>
       </c>
       <c r="O5" s="3">
-        <v>6302417</v>
+        <v>4947</v>
       </c>
       <c r="P5" s="3">
         <v>12496122</v>
@@ -24885,7 +24882,7 @@
         <v>110.63</v>
       </c>
       <c r="S5" s="3">
-        <v>24814731</v>
+        <v>9809</v>
       </c>
       <c r="T5" s="3">
         <v>49976855</v>
@@ -24906,17 +24903,15 @@
         <v>2.17</v>
       </c>
       <c r="G6" s="3">
-        <v>64299</v>
-      </c>
-      <c r="H6" s="3">
-        <v>124540</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="3">
         <v>4.12</v>
       </c>
       <c r="K6" s="3">
-        <v>246513</v>
+        <v>970</v>
       </c>
       <c r="L6" s="3">
         <v>499065</v>
@@ -24926,7 +24921,7 @@
         <v>26.16</v>
       </c>
       <c r="O6" s="3">
-        <v>6302417</v>
+        <v>4947</v>
       </c>
       <c r="P6" s="3">
         <v>12496122</v>
@@ -24936,7 +24931,7 @@
         <v>110.54</v>
       </c>
       <c r="S6" s="3">
-        <v>24814731</v>
+        <v>9809</v>
       </c>
       <c r="T6" s="3">
         <v>49976855</v>
@@ -24957,17 +24952,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G7" s="3">
-        <v>64299</v>
-      </c>
-      <c r="H7" s="3">
-        <v>124540</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="3">
         <v>4.3600000000000003</v>
       </c>
       <c r="K7" s="3">
-        <v>246513</v>
+        <v>970</v>
       </c>
       <c r="L7" s="3">
         <v>499065</v>
@@ -24977,7 +24970,7 @@
         <v>34.35</v>
       </c>
       <c r="O7" s="3">
-        <v>6302417</v>
+        <v>4947</v>
       </c>
       <c r="P7" s="3">
         <v>12496122</v>
@@ -24987,7 +24980,7 @@
         <v>114.76</v>
       </c>
       <c r="S7" s="3">
-        <v>24814731</v>
+        <v>9809</v>
       </c>
       <c r="T7" s="3">
         <v>49976855</v>
@@ -25008,17 +25001,15 @@
         <v>2.16</v>
       </c>
       <c r="G8" s="3">
-        <v>64299</v>
-      </c>
-      <c r="H8" s="4">
-        <v>124540</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="4">
         <v>4.05</v>
       </c>
       <c r="K8" s="3">
-        <v>246513</v>
+        <v>970</v>
       </c>
       <c r="L8" s="3">
         <v>499065</v>
@@ -25028,7 +25019,7 @@
         <v>24.88</v>
       </c>
       <c r="O8" s="3">
-        <v>6302417</v>
+        <v>4947</v>
       </c>
       <c r="P8" s="3">
         <v>12496122</v>
@@ -25038,7 +25029,7 @@
         <v>112.29</v>
       </c>
       <c r="S8" s="3">
-        <v>24814731</v>
+        <v>9809</v>
       </c>
       <c r="T8" s="3">
         <v>49976855</v>
@@ -25067,7 +25058,7 @@
       </c>
       <c r="G9" s="6">
         <f>AVERAGE(G4:G8)</f>
-        <v>64299</v>
+        <v>479</v>
       </c>
       <c r="H9" s="7">
         <f>AVERAGE(H4:H8)</f>
@@ -25080,7 +25071,7 @@
       </c>
       <c r="K9" s="6">
         <f>AVERAGE(K4:K8)</f>
-        <v>246513</v>
+        <v>970</v>
       </c>
       <c r="L9" s="7">
         <f>AVERAGE(L4:L8)</f>
@@ -25093,7 +25084,7 @@
       </c>
       <c r="O9" s="6">
         <f>AVERAGE(O4:O8)</f>
-        <v>6302417</v>
+        <v>4947</v>
       </c>
       <c r="P9" s="7">
         <f>AVERAGE(P4:P8)</f>
@@ -25106,7 +25097,7 @@
       </c>
       <c r="S9" s="6">
         <f>AVERAGE(S4:S8)</f>
-        <v>24814731</v>
+        <v>9809</v>
       </c>
       <c r="T9" s="7">
         <f>AVERAGE(T4:T8)</f>
@@ -25165,19 +25156,19 @@
       </c>
       <c r="D17">
         <f>G9</f>
-        <v>64299</v>
+        <v>479</v>
       </c>
       <c r="E17">
         <f>K9</f>
-        <v>246513</v>
+        <v>970</v>
       </c>
       <c r="F17">
         <f>O9</f>
-        <v>6302417</v>
+        <v>4947</v>
       </c>
       <c r="G17" s="11">
         <f>S9</f>
-        <v>24814731</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -25223,22 +25214,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F331BEF-06B6-4436-BC19-6A5D3BB59F78}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -25780,23 +25766,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6080BD-3A60-4411-B0F8-66352F4C5DCC}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -25902,46 +25884,46 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <v>681</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3">
-        <v>730</v>
+        <v>289</v>
       </c>
       <c r="F4" s="3">
-        <v>1.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G4" s="3">
-        <v>64299</v>
+        <v>3369</v>
       </c>
       <c r="H4" s="3">
-        <v>64798</v>
+        <v>5357</v>
       </c>
       <c r="J4" s="3">
-        <v>3.42</v>
+        <v>0.77</v>
       </c>
       <c r="K4" s="3">
-        <v>246513</v>
+        <v>7654</v>
       </c>
       <c r="L4" s="3">
-        <v>247512</v>
+        <v>13205</v>
       </c>
       <c r="N4" s="3">
-        <v>12.26</v>
+        <v>1.05</v>
       </c>
       <c r="O4" s="3">
-        <v>6302417</v>
+        <v>34745</v>
       </c>
       <c r="P4" s="3">
-        <v>6307416</v>
+        <v>75466</v>
       </c>
       <c r="R4" s="3">
-        <v>39.79</v>
+        <v>2.8</v>
       </c>
       <c r="S4" s="3">
-        <v>24814731</v>
+        <v>89716</v>
       </c>
       <c r="T4" s="3">
-        <v>24824730</v>
+        <v>163142</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -25949,46 +25931,46 @@
         <v>0.02</v>
       </c>
       <c r="C5" s="3">
-        <v>681</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3">
-        <v>730</v>
+        <v>289</v>
       </c>
       <c r="F5" s="3">
-        <v>1.68</v>
+        <v>0.46</v>
       </c>
       <c r="G5" s="3">
-        <v>64299</v>
+        <v>3369</v>
       </c>
       <c r="H5" s="3">
-        <v>64798</v>
+        <v>5357</v>
       </c>
       <c r="J5" s="3">
-        <v>3.37</v>
+        <v>0.61</v>
       </c>
       <c r="K5" s="3">
-        <v>246513</v>
+        <v>7654</v>
       </c>
       <c r="L5" s="3">
-        <v>247512</v>
+        <v>13205</v>
       </c>
       <c r="N5" s="3">
-        <v>12.11</v>
+        <v>1.02</v>
       </c>
       <c r="O5" s="3">
-        <v>6302417</v>
+        <v>34745</v>
       </c>
       <c r="P5" s="3">
-        <v>6307416</v>
+        <v>75466</v>
       </c>
       <c r="R5" s="3">
-        <v>39.840000000000003</v>
+        <v>2.7</v>
       </c>
       <c r="S5" s="3">
-        <v>24814731</v>
+        <v>89716</v>
       </c>
       <c r="T5" s="3">
-        <v>24824730</v>
+        <v>163142</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -25996,46 +25978,46 @@
         <v>0.02</v>
       </c>
       <c r="C6" s="3">
-        <v>681</v>
+        <v>161</v>
       </c>
       <c r="D6" s="3">
-        <v>730</v>
+        <v>289</v>
       </c>
       <c r="F6" s="3">
-        <v>1.67</v>
+        <v>0.48</v>
       </c>
       <c r="G6" s="3">
-        <v>64299</v>
+        <v>3369</v>
       </c>
       <c r="H6" s="3">
-        <v>64798</v>
+        <v>5357</v>
       </c>
       <c r="J6" s="3">
-        <v>3.38</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K6" s="3">
-        <v>246513</v>
+        <v>7654</v>
       </c>
       <c r="L6" s="3">
-        <v>247512</v>
+        <v>13205</v>
       </c>
       <c r="N6" s="3">
-        <v>11.79</v>
+        <v>0.99</v>
       </c>
       <c r="O6" s="3">
-        <v>6302417</v>
+        <v>34745</v>
       </c>
       <c r="P6" s="3">
-        <v>6307416</v>
+        <v>75466</v>
       </c>
       <c r="R6" s="3">
-        <v>39.82</v>
+        <v>2.9</v>
       </c>
       <c r="S6" s="3">
-        <v>24814731</v>
+        <v>89716</v>
       </c>
       <c r="T6" s="3">
-        <v>24824730</v>
+        <v>163142</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -26043,46 +26025,46 @@
         <v>0.02</v>
       </c>
       <c r="C7" s="3">
-        <v>681</v>
+        <v>161</v>
       </c>
       <c r="D7" s="3">
-        <v>730</v>
+        <v>289</v>
       </c>
       <c r="F7" s="3">
-        <v>1.66</v>
+        <v>0.35</v>
       </c>
       <c r="G7" s="3">
-        <v>64299</v>
+        <v>3369</v>
       </c>
       <c r="H7" s="3">
-        <v>64798</v>
+        <v>5357</v>
       </c>
       <c r="J7" s="3">
-        <v>3.3</v>
+        <v>0.54</v>
       </c>
       <c r="K7" s="3">
-        <v>246513</v>
+        <v>7654</v>
       </c>
       <c r="L7" s="3">
-        <v>247512</v>
+        <v>13205</v>
       </c>
       <c r="N7" s="3">
-        <v>11.99</v>
+        <v>1.07</v>
       </c>
       <c r="O7" s="3">
-        <v>6302417</v>
+        <v>34745</v>
       </c>
       <c r="P7" s="3">
-        <v>6307416</v>
+        <v>75466</v>
       </c>
       <c r="R7" s="3">
-        <v>39.409999999999997</v>
+        <v>3.08</v>
       </c>
       <c r="S7" s="3">
-        <v>24814731</v>
+        <v>89716</v>
       </c>
       <c r="T7" s="3">
-        <v>24824730</v>
+        <v>163142</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26090,46 +26072,46 @@
         <v>0.03</v>
       </c>
       <c r="C8" s="3">
-        <v>681</v>
+        <v>161</v>
       </c>
       <c r="D8" s="3">
-        <v>730</v>
+        <v>289</v>
       </c>
       <c r="F8" s="3">
-        <v>1.68</v>
+        <v>0.41</v>
       </c>
       <c r="G8" s="3">
-        <v>64299</v>
+        <v>3369</v>
       </c>
       <c r="H8" s="3">
-        <v>64798</v>
+        <v>5357</v>
       </c>
       <c r="J8" s="4">
-        <v>3.21</v>
+        <v>0.67</v>
       </c>
       <c r="K8" s="3">
-        <v>246513</v>
+        <v>7654</v>
       </c>
       <c r="L8" s="3">
-        <v>247512</v>
+        <v>13205</v>
       </c>
       <c r="N8" s="4">
-        <v>11.78</v>
+        <v>1.08</v>
       </c>
       <c r="O8" s="3">
-        <v>6302417</v>
+        <v>34745</v>
       </c>
       <c r="P8" s="3">
-        <v>6307416</v>
+        <v>75466</v>
       </c>
       <c r="R8" s="4">
-        <v>39.9</v>
+        <v>2.7</v>
       </c>
       <c r="S8" s="3">
-        <v>24814731</v>
+        <v>89716</v>
       </c>
       <c r="T8" s="3">
-        <v>24824730</v>
+        <v>163142</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26142,63 +26124,63 @@
       </c>
       <c r="C9" s="6">
         <f>AVERAGE(C4:C8)</f>
-        <v>681</v>
+        <v>161</v>
       </c>
       <c r="D9" s="7">
         <f>AVERAGE(D4:D8)</f>
-        <v>730</v>
+        <v>289</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="5">
         <f>AVERAGE(F4:F8)</f>
-        <v>1.6679999999999999</v>
+        <v>0.45200000000000007</v>
       </c>
       <c r="G9" s="6">
         <f>AVERAGE(G4:G8)</f>
-        <v>64299</v>
+        <v>3369</v>
       </c>
       <c r="H9" s="7">
         <f>AVERAGE(H4:H8)</f>
-        <v>64798</v>
+        <v>5357</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="5">
         <f>AVERAGE(J4:J8)</f>
-        <v>3.3359999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="K9" s="6">
         <f>AVERAGE(K4:K8)</f>
-        <v>246513</v>
+        <v>7654</v>
       </c>
       <c r="L9" s="7">
         <f>AVERAGE(L4:L8)</f>
-        <v>247512</v>
+        <v>13205</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="5">
         <f>AVERAGE(N4:N8)</f>
-        <v>11.986000000000001</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="O9" s="6">
         <f>AVERAGE(O4:O8)</f>
-        <v>6302417</v>
+        <v>34745</v>
       </c>
       <c r="P9" s="7">
         <f>AVERAGE(P4:P8)</f>
-        <v>6307416</v>
+        <v>75466</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="5">
         <f>AVERAGE(R4:R8)</f>
-        <v>39.751999999999995</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="S9" s="6">
         <f>AVERAGE(S4:S8)</f>
-        <v>24814731</v>
+        <v>89716</v>
       </c>
       <c r="T9" s="7">
         <f>AVERAGE(T4:T8)</f>
-        <v>24824730</v>
+        <v>163142</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -26222,6 +26204,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K11" s="25"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H13" s="26"/>
+    </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="13">
         <v>50</v>
@@ -26249,19 +26237,19 @@
       </c>
       <c r="D16" s="14">
         <f>F9</f>
-        <v>1.6679999999999999</v>
+        <v>0.45200000000000007</v>
       </c>
       <c r="E16" s="14">
         <f>J9</f>
-        <v>3.3359999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="F16" s="14">
         <f>N9</f>
-        <v>11.986000000000001</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="G16" s="15">
         <f>R9</f>
-        <v>39.751999999999995</v>
+        <v>2.8359999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
@@ -26270,23 +26258,23 @@
       </c>
       <c r="C17" s="16">
         <f>C9</f>
-        <v>681</v>
+        <v>161</v>
       </c>
       <c r="D17">
         <f>G9</f>
-        <v>64299</v>
+        <v>3369</v>
       </c>
       <c r="E17">
         <f>K9</f>
-        <v>246513</v>
+        <v>7654</v>
       </c>
       <c r="F17">
         <f>O9</f>
-        <v>6302417</v>
+        <v>34745</v>
       </c>
       <c r="G17" s="11">
         <f>S9</f>
-        <v>24814731</v>
+        <v>89716</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
@@ -26295,23 +26283,23 @@
       </c>
       <c r="C18" s="17">
         <f>D9</f>
-        <v>730</v>
+        <v>289</v>
       </c>
       <c r="D18" s="17">
         <f>H9</f>
-        <v>64798</v>
+        <v>5357</v>
       </c>
       <c r="E18" s="17">
         <f>L9</f>
-        <v>247512</v>
+        <v>13205</v>
       </c>
       <c r="F18" s="17">
         <f>P9</f>
-        <v>6307416</v>
+        <v>75466</v>
       </c>
       <c r="G18" s="18">
         <f>T9</f>
-        <v>24824730</v>
+        <v>163142</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -26354,23 +26342,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE86D82-9F01-4174-BF55-1F486BCE8CD4}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -26912,22 +26894,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833D3E9B-94CD-4200-AA64-4A46EC273437}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
     <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
